--- a/TechnicalProcessControl/TechnicalProcessControl/Templates/template001.xlsx
+++ b/TechnicalProcessControl/TechnicalProcessControl/Templates/template001.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
   <si>
     <t>14</t>
   </si>
@@ -47,16 +47,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
     <t>07</t>
-  </si>
-  <si>
-    <t>015</t>
   </si>
   <si>
     <t>А 03</t>
@@ -72,9 +63,6 @@
   </si>
   <si>
     <t>Б 09</t>
-  </si>
-  <si>
-    <t>0401</t>
   </si>
   <si>
     <t xml:space="preserve"> А  01</t>
@@ -161,25 +149,7 @@
     <t>Route Sheet</t>
   </si>
   <si>
-    <t>М22/А</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>slinger</t>
-  </si>
-  <si>
-    <t>Transport of blanks from an intermidiate storage location to operation 010</t>
-  </si>
-  <si>
-    <t>Lifting slings</t>
-  </si>
-  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Transport parts to operation 020</t>
   </si>
   <si>
     <t>16</t>
@@ -203,12 +173,6 @@
     <t xml:space="preserve">  03</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
     <t>Т  14</t>
   </si>
   <si>
@@ -218,19 +182,10 @@
     <t>4</t>
   </si>
   <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>10х400х311</t>
-  </si>
-  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
     <t>Rev.notification No</t>
-  </si>
-  <si>
-    <t>POWER COACH</t>
   </si>
   <si>
     <t>No. Of Sheets</t>
@@ -301,25 +256,7 @@
     <t>SТ</t>
   </si>
   <si>
-    <t>AS03</t>
-  </si>
-  <si>
     <t>E 04</t>
-  </si>
-  <si>
-    <t>Plasma cutting</t>
-  </si>
-  <si>
-    <t>Thermal cutting machine</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>1.</t>
   </si>
   <si>
     <t>R S</t>
@@ -329,9 +266,6 @@
   </si>
   <si>
     <t>ST</t>
-  </si>
-  <si>
-    <t>Safety and labor instructions for the transporter</t>
   </si>
   <si>
     <t>E  02</t>
@@ -385,40 +319,10 @@
     <t xml:space="preserve">  O 13</t>
   </si>
   <si>
-    <t>15РС11024.002</t>
-  </si>
-  <si>
-    <t>Safety and health instructions for the operator of a thermal cutting machine</t>
-  </si>
-  <si>
     <t>Panchenko A.</t>
   </si>
   <si>
-    <t>20PCA11000.03.000</t>
-  </si>
-  <si>
-    <t>Overhead Crane Q=10t</t>
-  </si>
-  <si>
     <t>Date of issue____________</t>
-  </si>
-  <si>
-    <t>10.001.0013</t>
-  </si>
-  <si>
-    <t>Place metal sheet on machine table</t>
-  </si>
-  <si>
-    <t>Enter the control program in the CNC of machine</t>
-  </si>
-  <si>
-    <t>Cut the outline of a part according to the drawing</t>
-  </si>
-  <si>
-    <t>Vernier scale, measuring tape, contour gauge</t>
-  </si>
-  <si>
-    <t>0.3</t>
   </si>
 </sst>
 </file>
@@ -3035,8 +2939,8 @@
   </sheetPr>
   <dimension ref="A1:IV128"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A85" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83:DF83"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="CO75" sqref="CO75:DF77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3139,7 +3043,7 @@
       <c r="CI1" s="25"/>
       <c r="CJ1" s="25"/>
       <c r="CK1" s="25" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="CL1" s="25"/>
       <c r="CM1" s="25"/>
@@ -3440,7 +3344,7 @@
       <c r="AU4" s="22"/>
       <c r="AV4" s="22"/>
       <c r="AW4" s="233" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AX4" s="234"/>
       <c r="AY4" s="234"/>
@@ -3450,7 +3354,7 @@
       <c r="BC4" s="278"/>
       <c r="BD4" s="279"/>
       <c r="BE4" s="233" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="BF4" s="234"/>
       <c r="BG4" s="234"/>
@@ -3461,7 +3365,7 @@
       <c r="BL4" s="234"/>
       <c r="BM4" s="276"/>
       <c r="BN4" s="233" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BO4" s="234"/>
       <c r="BP4" s="234"/>
@@ -3471,7 +3375,7 @@
       <c r="BT4" s="234"/>
       <c r="BU4" s="276"/>
       <c r="BV4" s="233" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BW4" s="234"/>
       <c r="BX4" s="234"/>
@@ -3479,7 +3383,7 @@
       <c r="BZ4" s="234"/>
       <c r="CA4" s="276"/>
       <c r="CB4" s="233" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="CC4" s="234"/>
       <c r="CD4" s="234"/>
@@ -3489,7 +3393,7 @@
       <c r="CH4" s="280"/>
       <c r="CI4" s="281"/>
       <c r="CJ4" s="282" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="CK4" s="283"/>
       <c r="CL4" s="283"/>
@@ -3500,7 +3404,7 @@
       <c r="CQ4" s="283"/>
       <c r="CR4" s="284"/>
       <c r="CS4" s="233" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="CT4" s="234"/>
       <c r="CU4" s="234"/>
@@ -3510,7 +3414,7 @@
       <c r="CY4" s="234"/>
       <c r="CZ4" s="276"/>
       <c r="DA4" s="233" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="DB4" s="234"/>
       <c r="DC4" s="234"/>
@@ -3543,9 +3447,7 @@
       <c r="U5" s="34"/>
       <c r="V5" s="34"/>
       <c r="W5" s="35"/>
-      <c r="X5" s="236" t="s">
-        <v>67</v>
-      </c>
+      <c r="X5" s="236"/>
       <c r="Y5" s="237"/>
       <c r="Z5" s="237"/>
       <c r="AA5" s="237"/>
@@ -3619,7 +3521,7 @@
       <c r="CQ5" s="243"/>
       <c r="CR5" s="244"/>
       <c r="CS5" s="248" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="CT5" s="249"/>
       <c r="CU5" s="249"/>
@@ -3629,7 +3531,7 @@
       <c r="CY5" s="249"/>
       <c r="CZ5" s="249"/>
       <c r="DA5" s="249" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="DB5" s="250"/>
       <c r="DC5" s="250"/>
@@ -3736,7 +3638,7 @@
       <c r="CQ6" s="246"/>
       <c r="CR6" s="247"/>
       <c r="CS6" s="252" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="CT6" s="253"/>
       <c r="CU6" s="253"/>
@@ -3780,7 +3682,7 @@
       <c r="V7" s="34"/>
       <c r="W7" s="35"/>
       <c r="X7" s="256" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y7" s="257"/>
       <c r="Z7" s="257"/>
@@ -3811,9 +3713,7 @@
       <c r="AY7" s="257"/>
       <c r="AZ7" s="257"/>
       <c r="BA7" s="258"/>
-      <c r="BB7" s="262" t="s">
-        <v>118</v>
-      </c>
+      <c r="BB7" s="262"/>
       <c r="BC7" s="263"/>
       <c r="BD7" s="263"/>
       <c r="BE7" s="263"/>
@@ -3852,9 +3752,7 @@
       <c r="CL7" s="265"/>
       <c r="CM7" s="265"/>
       <c r="CN7" s="266"/>
-      <c r="CO7" s="273" t="s">
-        <v>124</v>
-      </c>
+      <c r="CO7" s="273"/>
       <c r="CP7" s="141"/>
       <c r="CQ7" s="141"/>
       <c r="CR7" s="141"/>
@@ -4143,9 +4041,7 @@
       <c r="AN10" s="199"/>
       <c r="AO10" s="199"/>
       <c r="AP10" s="200"/>
-      <c r="AQ10" s="204" t="s">
-        <v>63</v>
-      </c>
+      <c r="AQ10" s="204"/>
       <c r="AR10" s="205"/>
       <c r="AS10" s="205"/>
       <c r="AT10" s="205"/>
@@ -4474,7 +4370,7 @@
       <c r="AD13" s="45"/>
       <c r="AE13" s="45"/>
       <c r="AF13" s="219" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AG13" s="219"/>
       <c r="AH13" s="219"/>
@@ -5055,7 +4951,7 @@
       <c r="AR18" s="45"/>
       <c r="AS18" s="45"/>
       <c r="AT18" s="220" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AU18" s="220"/>
       <c r="AV18" s="220"/>
@@ -5270,7 +5166,7 @@
       <c r="AE20" s="45"/>
       <c r="AF20" s="45"/>
       <c r="AG20" s="221" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AH20" s="221"/>
       <c r="AI20" s="221"/>
@@ -5733,7 +5629,7 @@
       <c r="AN24" s="47"/>
       <c r="AO24" s="47"/>
       <c r="AP24" s="47" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AQ24" s="47"/>
       <c r="AR24" s="47"/>
@@ -6222,7 +6118,7 @@
       <c r="BW28" s="45"/>
       <c r="BX28" s="45"/>
       <c r="BY28" s="49" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="BZ28" s="49"/>
       <c r="CA28" s="49"/>
@@ -6377,7 +6273,7 @@
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="223" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E30" s="223"/>
       <c r="F30" s="223"/>
@@ -6452,7 +6348,7 @@
       <c r="BW30" s="45"/>
       <c r="BX30" s="45"/>
       <c r="BY30" s="222" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="BZ30" s="222"/>
       <c r="CA30" s="222"/>
@@ -6604,7 +6500,7 @@
     </row>
     <row r="32" spans="1:111" s="27" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="189" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B32" s="190"/>
       <c r="C32" s="190"/>
@@ -6615,7 +6511,7 @@
       <c r="H32" s="190"/>
       <c r="I32" s="191"/>
       <c r="J32" s="192" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K32" s="193"/>
       <c r="L32" s="193"/>
@@ -6920,7 +6816,7 @@
       <c r="CG34" s="1"/>
       <c r="CH34" s="1"/>
       <c r="CI34" s="25" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="CJ34" s="1"/>
       <c r="CK34" s="1"/>
@@ -7060,7 +6956,7 @@
     </row>
     <row r="36" spans="1:111" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B36" s="91"/>
       <c r="C36" s="91"/>
@@ -7124,7 +7020,7 @@
     </row>
     <row r="37" spans="1:111" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B37" s="91"/>
       <c r="C37" s="91"/>
@@ -7219,7 +7115,7 @@
     </row>
     <row r="38" spans="1:111" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="307" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B38" s="308"/>
       <c r="C38" s="308"/>
@@ -7250,19 +7146,19 @@
       <c r="AB38" s="411"/>
       <c r="AC38" s="412"/>
       <c r="AW38" s="103" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AX38" s="104"/>
       <c r="AY38" s="104"/>
       <c r="AZ38" s="105"/>
       <c r="BA38" s="103" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BB38" s="104"/>
       <c r="BC38" s="104"/>
       <c r="BD38" s="105"/>
       <c r="BE38" s="103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BF38" s="104"/>
       <c r="BG38" s="104"/>
@@ -7273,7 +7169,7 @@
       <c r="BL38" s="104"/>
       <c r="BM38" s="105"/>
       <c r="BN38" s="103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BO38" s="104"/>
       <c r="BP38" s="104"/>
@@ -7283,7 +7179,7 @@
       <c r="BT38" s="104"/>
       <c r="BU38" s="105"/>
       <c r="BV38" s="103" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BW38" s="104"/>
       <c r="BX38" s="104"/>
@@ -7291,19 +7187,19 @@
       <c r="BZ38" s="104"/>
       <c r="CA38" s="105"/>
       <c r="CB38" s="103" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="CC38" s="104"/>
       <c r="CD38" s="104"/>
       <c r="CE38" s="105"/>
       <c r="CF38" s="103" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="CG38" s="104"/>
       <c r="CH38" s="104"/>
       <c r="CI38" s="105"/>
       <c r="CJ38" s="103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="CK38" s="104"/>
       <c r="CL38" s="104"/>
@@ -7314,7 +7210,7 @@
       <c r="CQ38" s="104"/>
       <c r="CR38" s="105"/>
       <c r="CS38" s="103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="CT38" s="104"/>
       <c r="CU38" s="104"/>
@@ -7324,7 +7220,7 @@
       <c r="CY38" s="104"/>
       <c r="CZ38" s="105"/>
       <c r="DA38" s="103" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="DB38" s="104"/>
       <c r="DC38" s="104"/>
@@ -7333,9 +7229,7 @@
       <c r="DF38" s="105"/>
     </row>
     <row r="39" spans="1:111" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="397" t="s">
-        <v>121</v>
-      </c>
+      <c r="A39" s="397"/>
       <c r="B39" s="398"/>
       <c r="C39" s="398"/>
       <c r="D39" s="398"/>
@@ -7562,7 +7456,7 @@
     </row>
     <row r="41" spans="1:111" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B41" s="91"/>
       <c r="C41" s="91"/>
@@ -7573,7 +7467,7 @@
       <c r="H41" s="91"/>
       <c r="I41" s="92"/>
       <c r="J41" s="376" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="K41" s="377"/>
       <c r="L41" s="377"/>
@@ -7603,7 +7497,7 @@
       <c r="AJ41" s="368"/>
       <c r="AK41" s="369"/>
       <c r="AL41" s="391" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM41" s="392"/>
       <c r="AN41" s="392"/>
@@ -7620,9 +7514,7 @@
       <c r="AY41" s="392"/>
       <c r="AZ41" s="392"/>
       <c r="BA41" s="393"/>
-      <c r="BB41" s="273" t="s">
-        <v>118</v>
-      </c>
+      <c r="BB41" s="273"/>
       <c r="BC41" s="141"/>
       <c r="BD41" s="141"/>
       <c r="BE41" s="141"/>
@@ -7661,9 +7553,7 @@
       <c r="CL41" s="322"/>
       <c r="CM41" s="322"/>
       <c r="CN41" s="389"/>
-      <c r="CO41" s="140" t="s">
-        <v>124</v>
-      </c>
+      <c r="CO41" s="140"/>
       <c r="CP41" s="141"/>
       <c r="CQ41" s="141"/>
       <c r="CR41" s="141"/>
@@ -7684,7 +7574,7 @@
     </row>
     <row r="42" spans="1:111" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="379" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B42" s="380"/>
       <c r="C42" s="380"/>
@@ -7798,7 +7688,7 @@
     </row>
     <row r="43" spans="1:111" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="379" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B43" s="380"/>
       <c r="C43" s="380"/>
@@ -7915,7 +7805,7 @@
     </row>
     <row r="44" spans="1:111" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="379" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B44" s="380"/>
       <c r="C44" s="380"/>
@@ -7956,9 +7846,7 @@
       <c r="AI44" s="368"/>
       <c r="AJ44" s="368"/>
       <c r="AK44" s="369"/>
-      <c r="AL44" s="382" t="s">
-        <v>63</v>
-      </c>
+      <c r="AL44" s="382"/>
       <c r="AM44" s="383"/>
       <c r="AN44" s="383"/>
       <c r="AO44" s="383"/>
@@ -8017,7 +7905,7 @@
       <c r="CP44" s="383"/>
       <c r="CQ44" s="384"/>
       <c r="CR44" s="149" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="CS44" s="150"/>
       <c r="CT44" s="150"/>
@@ -8036,7 +7924,7 @@
     </row>
     <row r="45" spans="1:111" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="90" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B45" s="91"/>
       <c r="C45" s="91"/>
@@ -8156,9 +8044,7 @@
       <c r="C46" s="311"/>
       <c r="D46" s="311"/>
       <c r="E46" s="349"/>
-      <c r="F46" s="169" t="s">
-        <v>44</v>
-      </c>
+      <c r="F46" s="169"/>
       <c r="G46" s="97"/>
       <c r="H46" s="97"/>
       <c r="I46" s="97"/>
@@ -8286,13 +8172,13 @@
       <c r="Q47" s="137"/>
       <c r="R47" s="138"/>
       <c r="S47" s="136" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="T47" s="137"/>
       <c r="U47" s="137"/>
       <c r="V47" s="138"/>
       <c r="W47" s="136" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="X47" s="137"/>
       <c r="Y47" s="137"/>
@@ -8319,7 +8205,7 @@
       <c r="AT47" s="137"/>
       <c r="AU47" s="138"/>
       <c r="AV47" s="136" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AW47" s="137"/>
       <c r="AX47" s="137"/>
@@ -8334,7 +8220,7 @@
       <c r="BG47" s="137"/>
       <c r="BH47" s="138"/>
       <c r="BI47" s="136" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BJ47" s="137"/>
       <c r="BK47" s="137"/>
@@ -8363,7 +8249,7 @@
       <c r="CH47" s="137"/>
       <c r="CI47" s="138"/>
       <c r="CJ47" s="136" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="CK47" s="137"/>
       <c r="CL47" s="137"/>
@@ -8408,14 +8294,12 @@
       <c r="Q48" s="322"/>
       <c r="R48" s="322"/>
       <c r="S48" s="315" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="T48" s="316"/>
       <c r="U48" s="316"/>
       <c r="V48" s="317"/>
-      <c r="W48" s="335">
-        <v>9.75</v>
-      </c>
+      <c r="W48" s="335"/>
       <c r="X48" s="335"/>
       <c r="Y48" s="335"/>
       <c r="Z48" s="335"/>
@@ -8441,7 +8325,7 @@
       <c r="AT48" s="326"/>
       <c r="AU48" s="327"/>
       <c r="AV48" s="331" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AW48" s="316"/>
       <c r="AX48" s="316"/>
@@ -8455,9 +8339,7 @@
       <c r="BF48" s="316"/>
       <c r="BG48" s="316"/>
       <c r="BH48" s="332"/>
-      <c r="BI48" s="331" t="s">
-        <v>64</v>
-      </c>
+      <c r="BI48" s="331"/>
       <c r="BJ48" s="316"/>
       <c r="BK48" s="316"/>
       <c r="BL48" s="316"/>
@@ -8631,32 +8513,32 @@
       <c r="D50" s="311"/>
       <c r="E50" s="312"/>
       <c r="F50" s="314" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G50" s="303"/>
       <c r="H50" s="303"/>
       <c r="I50" s="304"/>
       <c r="J50" s="302" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K50" s="303"/>
       <c r="L50" s="303"/>
       <c r="M50" s="304"/>
       <c r="N50" s="302" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O50" s="303"/>
       <c r="P50" s="303"/>
       <c r="Q50" s="304"/>
       <c r="R50" s="186" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="S50" s="187"/>
       <c r="T50" s="187"/>
       <c r="U50" s="187"/>
       <c r="V50" s="188"/>
       <c r="W50" s="130" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="X50" s="131"/>
       <c r="Y50" s="131"/>
@@ -8687,7 +8569,7 @@
       <c r="AX50" s="131"/>
       <c r="AY50" s="305"/>
       <c r="AZ50" s="130" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="BA50" s="131"/>
       <c r="BB50" s="131"/>
@@ -8750,14 +8632,14 @@
     </row>
     <row r="51" spans="1:110" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="310" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B51" s="311"/>
       <c r="C51" s="311"/>
       <c r="D51" s="311"/>
       <c r="E51" s="312"/>
       <c r="F51" s="313" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G51" s="137"/>
       <c r="H51" s="137"/>
@@ -8809,7 +8691,7 @@
       <c r="BB51" s="137"/>
       <c r="BC51" s="138"/>
       <c r="BD51" s="136" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BE51" s="137"/>
       <c r="BF51" s="137"/>
@@ -8818,7 +8700,7 @@
       <c r="BI51" s="137"/>
       <c r="BJ51" s="138"/>
       <c r="BK51" s="136" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="BL51" s="137"/>
       <c r="BM51" s="137"/>
@@ -8860,7 +8742,7 @@
       <c r="CW51" s="137"/>
       <c r="CX51" s="138"/>
       <c r="CY51" s="136" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="CZ51" s="137"/>
       <c r="DA51" s="137"/>
@@ -8872,15 +8754,13 @@
     </row>
     <row r="52" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="224" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B52" s="225"/>
       <c r="C52" s="225"/>
       <c r="D52" s="225"/>
       <c r="E52" s="226"/>
-      <c r="F52" s="19" t="s">
-        <v>90</v>
-      </c>
+      <c r="F52" s="19"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
@@ -8892,25 +8772,19 @@
       <c r="O52" s="127"/>
       <c r="P52" s="127"/>
       <c r="Q52" s="127"/>
-      <c r="R52" s="128" t="s">
-        <v>6</v>
-      </c>
+      <c r="R52" s="128"/>
       <c r="S52" s="128"/>
       <c r="T52" s="128"/>
       <c r="U52" s="128"/>
       <c r="V52" s="128"/>
-      <c r="W52" s="128" t="s">
-        <v>15</v>
-      </c>
+      <c r="W52" s="128"/>
       <c r="X52" s="128"/>
       <c r="Y52" s="128"/>
       <c r="Z52" s="128"/>
       <c r="AA52" s="128"/>
       <c r="AB52" s="128"/>
       <c r="AC52" s="128"/>
-      <c r="AD52" s="128" t="s">
-        <v>45</v>
-      </c>
+      <c r="AD52" s="128"/>
       <c r="AE52" s="128"/>
       <c r="AF52" s="128"/>
       <c r="AG52" s="128"/>
@@ -8932,9 +8806,7 @@
       <c r="AW52" s="128"/>
       <c r="AX52" s="128"/>
       <c r="AY52" s="128"/>
-      <c r="AZ52" s="167" t="s">
-        <v>100</v>
-      </c>
+      <c r="AZ52" s="167"/>
       <c r="BA52" s="167"/>
       <c r="BB52" s="167"/>
       <c r="BC52" s="167"/>
@@ -8996,7 +8868,7 @@
     </row>
     <row r="53" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="224" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B53" s="225"/>
       <c r="C53" s="225"/>
@@ -9004,9 +8876,7 @@
       <c r="E53" s="226"/>
       <c r="F53" s="126"/>
       <c r="G53" s="93"/>
-      <c r="H53" s="97" t="s">
-        <v>122</v>
-      </c>
+      <c r="H53" s="97"/>
       <c r="I53" s="97"/>
       <c r="J53" s="97"/>
       <c r="K53" s="97"/>
@@ -9054,9 +8924,7 @@
       <c r="BA53" s="97"/>
       <c r="BB53" s="97"/>
       <c r="BC53" s="97"/>
-      <c r="BD53" s="96" t="s">
-        <v>46</v>
-      </c>
+      <c r="BD53" s="96"/>
       <c r="BE53" s="96"/>
       <c r="BF53" s="96"/>
       <c r="BG53" s="96"/>
@@ -9114,7 +8982,7 @@
     </row>
     <row r="54" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="224" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B54" s="225"/>
       <c r="C54" s="225"/>
@@ -9122,9 +8990,7 @@
       <c r="E54" s="226"/>
       <c r="F54" s="95"/>
       <c r="G54" s="96"/>
-      <c r="H54" s="97" t="s">
-        <v>47</v>
-      </c>
+      <c r="H54" s="97"/>
       <c r="I54" s="97"/>
       <c r="J54" s="97"/>
       <c r="K54" s="97"/>
@@ -9230,7 +9096,7 @@
     </row>
     <row r="55" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="224" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" s="225"/>
       <c r="C55" s="225"/>
@@ -9238,9 +9104,7 @@
       <c r="E55" s="226"/>
       <c r="F55" s="95"/>
       <c r="G55" s="96"/>
-      <c r="H55" s="97" t="s">
-        <v>48</v>
-      </c>
+      <c r="H55" s="97"/>
       <c r="I55" s="97"/>
       <c r="J55" s="97"/>
       <c r="K55" s="97"/>
@@ -9346,7 +9210,7 @@
     </row>
     <row r="56" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56" s="225"/>
       <c r="C56" s="225"/>
@@ -9460,15 +9324,13 @@
     </row>
     <row r="57" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="224" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B57" s="225"/>
       <c r="C57" s="225"/>
       <c r="D57" s="225"/>
       <c r="E57" s="226"/>
-      <c r="F57" s="78" t="s">
-        <v>90</v>
-      </c>
+      <c r="F57" s="78"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
@@ -9480,25 +9342,19 @@
       <c r="O57" s="93"/>
       <c r="P57" s="93"/>
       <c r="Q57" s="93"/>
-      <c r="R57" s="96" t="s">
-        <v>7</v>
-      </c>
+      <c r="R57" s="96"/>
       <c r="S57" s="96"/>
       <c r="T57" s="96"/>
       <c r="U57" s="96"/>
       <c r="V57" s="96"/>
-      <c r="W57" s="96" t="s">
-        <v>58</v>
-      </c>
+      <c r="W57" s="96"/>
       <c r="X57" s="96"/>
       <c r="Y57" s="96"/>
       <c r="Z57" s="96"/>
       <c r="AA57" s="96"/>
       <c r="AB57" s="96"/>
       <c r="AC57" s="96"/>
-      <c r="AD57" s="96" t="s">
-        <v>92</v>
-      </c>
+      <c r="AD57" s="96"/>
       <c r="AE57" s="96"/>
       <c r="AF57" s="96"/>
       <c r="AG57" s="96"/>
@@ -9520,9 +9376,7 @@
       <c r="AW57" s="96"/>
       <c r="AX57" s="96"/>
       <c r="AY57" s="96"/>
-      <c r="AZ57" s="97" t="s">
-        <v>119</v>
-      </c>
+      <c r="AZ57" s="97"/>
       <c r="BA57" s="97"/>
       <c r="BB57" s="97"/>
       <c r="BC57" s="97"/>
@@ -9584,7 +9438,7 @@
     </row>
     <row r="58" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="224" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B58" s="225"/>
       <c r="C58" s="225"/>
@@ -9592,9 +9446,7 @@
       <c r="E58" s="226"/>
       <c r="F58" s="122"/>
       <c r="G58" s="123"/>
-      <c r="H58" s="97" t="s">
-        <v>93</v>
-      </c>
+      <c r="H58" s="97"/>
       <c r="I58" s="97"/>
       <c r="J58" s="97"/>
       <c r="K58" s="97"/>
@@ -9642,18 +9494,14 @@
       <c r="BA58" s="97"/>
       <c r="BB58" s="97"/>
       <c r="BC58" s="97"/>
-      <c r="BD58" s="96" t="s">
-        <v>59</v>
-      </c>
+      <c r="BD58" s="96"/>
       <c r="BE58" s="96"/>
       <c r="BF58" s="96"/>
       <c r="BG58" s="96"/>
       <c r="BH58" s="96"/>
       <c r="BI58" s="96"/>
       <c r="BJ58" s="96"/>
-      <c r="BK58" s="96" t="s">
-        <v>62</v>
-      </c>
+      <c r="BK58" s="96"/>
       <c r="BL58" s="96"/>
       <c r="BM58" s="96"/>
       <c r="BN58" s="96"/>
@@ -9666,9 +9514,7 @@
       <c r="BU58" s="93"/>
       <c r="BV58" s="93"/>
       <c r="BW58" s="93"/>
-      <c r="BX58" s="96" t="s">
-        <v>5</v>
-      </c>
+      <c r="BX58" s="96"/>
       <c r="BY58" s="96"/>
       <c r="BZ58" s="96"/>
       <c r="CA58" s="96"/>
@@ -9695,9 +9541,7 @@
       <c r="CV58" s="93"/>
       <c r="CW58" s="93"/>
       <c r="CX58" s="93"/>
-      <c r="CY58" s="96" t="s">
-        <v>129</v>
-      </c>
+      <c r="CY58" s="96"/>
       <c r="CZ58" s="96"/>
       <c r="DA58" s="96"/>
       <c r="DB58" s="96"/>
@@ -9708,7 +9552,7 @@
     </row>
     <row r="59" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="224" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B59" s="225"/>
       <c r="C59" s="225"/>
@@ -9764,18 +9608,14 @@
       <c r="BA59" s="93"/>
       <c r="BB59" s="93"/>
       <c r="BC59" s="93"/>
-      <c r="BD59" s="96" t="s">
-        <v>46</v>
-      </c>
+      <c r="BD59" s="96"/>
       <c r="BE59" s="96"/>
       <c r="BF59" s="96"/>
       <c r="BG59" s="96"/>
       <c r="BH59" s="96"/>
       <c r="BI59" s="96"/>
       <c r="BJ59" s="96"/>
-      <c r="BK59" s="96" t="s">
-        <v>49</v>
-      </c>
+      <c r="BK59" s="96"/>
       <c r="BL59" s="96"/>
       <c r="BM59" s="96"/>
       <c r="BN59" s="96"/>
@@ -9788,9 +9628,7 @@
       <c r="BU59" s="93"/>
       <c r="BV59" s="93"/>
       <c r="BW59" s="93"/>
-      <c r="BX59" s="96" t="s">
-        <v>5</v>
-      </c>
+      <c r="BX59" s="96"/>
       <c r="BY59" s="96"/>
       <c r="BZ59" s="96"/>
       <c r="CA59" s="96"/>
@@ -9828,19 +9666,15 @@
     </row>
     <row r="60" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="224" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B60" s="225"/>
       <c r="C60" s="225"/>
       <c r="D60" s="225"/>
       <c r="E60" s="226"/>
-      <c r="F60" s="23" t="s">
-        <v>96</v>
-      </c>
+      <c r="F60" s="23"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="97" t="s">
-        <v>125</v>
-      </c>
+      <c r="H60" s="97"/>
       <c r="I60" s="97"/>
       <c r="J60" s="97"/>
       <c r="K60" s="97"/>
@@ -9946,19 +9780,15 @@
     </row>
     <row r="61" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="224" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B61" s="225"/>
       <c r="C61" s="225"/>
       <c r="D61" s="225"/>
       <c r="E61" s="226"/>
-      <c r="F61" s="24" t="s">
-        <v>95</v>
-      </c>
+      <c r="F61" s="24"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="97" t="s">
-        <v>126</v>
-      </c>
+      <c r="H61" s="97"/>
       <c r="I61" s="97"/>
       <c r="J61" s="97"/>
       <c r="K61" s="97"/>
@@ -10064,19 +9894,15 @@
     </row>
     <row r="62" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="224" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B62" s="225"/>
       <c r="C62" s="225"/>
       <c r="D62" s="225"/>
       <c r="E62" s="226"/>
-      <c r="F62" s="24" t="s">
-        <v>94</v>
-      </c>
+      <c r="F62" s="24"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="97" t="s">
-        <v>127</v>
-      </c>
+      <c r="H62" s="97"/>
       <c r="I62" s="97"/>
       <c r="J62" s="97"/>
       <c r="K62" s="97"/>
@@ -10182,7 +10008,7 @@
     </row>
     <row r="63" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="224" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B63" s="225"/>
       <c r="C63" s="225"/>
@@ -10190,9 +10016,7 @@
       <c r="E63" s="226"/>
       <c r="F63" s="95"/>
       <c r="G63" s="96"/>
-      <c r="H63" s="97" t="s">
-        <v>128</v>
-      </c>
+      <c r="H63" s="97"/>
       <c r="I63" s="97"/>
       <c r="J63" s="97"/>
       <c r="K63" s="97"/>
@@ -10298,7 +10122,7 @@
     </row>
     <row r="64" spans="1:110" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="224" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B64" s="225"/>
       <c r="C64" s="225"/>
@@ -10412,7 +10236,7 @@
     </row>
     <row r="65" spans="1:256" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="224" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B65" s="225"/>
       <c r="C65" s="225"/>
@@ -10526,7 +10350,7 @@
     </row>
     <row r="66" spans="1:256" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="227" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B66" s="228"/>
       <c r="C66" s="228"/>
@@ -10537,7 +10361,7 @@
       <c r="H66" s="228"/>
       <c r="I66" s="229"/>
       <c r="J66" s="170" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K66" s="171"/>
       <c r="L66" s="171"/>
@@ -10979,7 +10803,7 @@
       <c r="CA68" s="58"/>
       <c r="CB68" s="59"/>
       <c r="CC68" s="60" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="CD68" s="60"/>
       <c r="CE68" s="60"/>
@@ -11129,7 +10953,7 @@
     </row>
     <row r="70" spans="1:256" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="90" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B70" s="91"/>
       <c r="C70" s="91"/>
@@ -11245,7 +11069,7 @@
     </row>
     <row r="71" spans="1:256" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B71" s="91"/>
       <c r="C71" s="91"/>
@@ -11361,7 +11185,7 @@
     </row>
     <row r="72" spans="1:256" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="307" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B72" s="308"/>
       <c r="C72" s="308"/>
@@ -11411,19 +11235,19 @@
       <c r="AU72" s="64"/>
       <c r="AV72" s="64"/>
       <c r="AW72" s="103" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AX72" s="104"/>
       <c r="AY72" s="104"/>
       <c r="AZ72" s="105"/>
       <c r="BA72" s="103" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BB72" s="104"/>
       <c r="BC72" s="104"/>
       <c r="BD72" s="105"/>
       <c r="BE72" s="103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BF72" s="104"/>
       <c r="BG72" s="104"/>
@@ -11434,7 +11258,7 @@
       <c r="BL72" s="104"/>
       <c r="BM72" s="105"/>
       <c r="BN72" s="103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BO72" s="104"/>
       <c r="BP72" s="104"/>
@@ -11444,7 +11268,7 @@
       <c r="BT72" s="104"/>
       <c r="BU72" s="105"/>
       <c r="BV72" s="103" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BW72" s="104"/>
       <c r="BX72" s="104"/>
@@ -11452,19 +11276,19 @@
       <c r="BZ72" s="104"/>
       <c r="CA72" s="105"/>
       <c r="CB72" s="103" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="CC72" s="104"/>
       <c r="CD72" s="104"/>
       <c r="CE72" s="105"/>
       <c r="CF72" s="103" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="CG72" s="104"/>
       <c r="CH72" s="104"/>
       <c r="CI72" s="105"/>
       <c r="CJ72" s="103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="CK72" s="104"/>
       <c r="CL72" s="104"/>
@@ -11475,7 +11299,7 @@
       <c r="CQ72" s="104"/>
       <c r="CR72" s="105"/>
       <c r="CS72" s="103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="CT72" s="104"/>
       <c r="CU72" s="104"/>
@@ -11485,7 +11309,7 @@
       <c r="CY72" s="104"/>
       <c r="CZ72" s="105"/>
       <c r="DA72" s="103" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="DB72" s="104"/>
       <c r="DC72" s="104"/>
@@ -11601,7 +11425,7 @@
       <c r="CY73" s="107"/>
       <c r="CZ73" s="108"/>
       <c r="DA73" s="112" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="DB73" s="113"/>
       <c r="DC73" s="113"/>
@@ -11796,9 +11620,7 @@
       <c r="BP75" s="88"/>
       <c r="BQ75" s="88"/>
       <c r="BR75" s="118"/>
-      <c r="BS75" s="177" t="s">
-        <v>118</v>
-      </c>
+      <c r="BS75" s="177"/>
       <c r="BT75" s="178"/>
       <c r="BU75" s="178"/>
       <c r="BV75" s="178"/>
@@ -11820,9 +11642,7 @@
       <c r="CL75" s="178"/>
       <c r="CM75" s="178"/>
       <c r="CN75" s="179"/>
-      <c r="CO75" s="140" t="s">
-        <v>124</v>
-      </c>
+      <c r="CO75" s="140"/>
       <c r="CP75" s="141"/>
       <c r="CQ75" s="141"/>
       <c r="CR75" s="141"/>
@@ -12080,32 +11900,32 @@
       <c r="D78" s="300"/>
       <c r="E78" s="301"/>
       <c r="F78" s="302" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G78" s="303"/>
       <c r="H78" s="303"/>
       <c r="I78" s="304"/>
       <c r="J78" s="302" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K78" s="303"/>
       <c r="L78" s="303"/>
       <c r="M78" s="304"/>
       <c r="N78" s="302" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O78" s="303"/>
       <c r="P78" s="303"/>
       <c r="Q78" s="304"/>
       <c r="R78" s="186" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="S78" s="187"/>
       <c r="T78" s="187"/>
       <c r="U78" s="187"/>
       <c r="V78" s="188"/>
       <c r="W78" s="130" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="X78" s="131"/>
       <c r="Y78" s="131"/>
@@ -12136,7 +11956,7 @@
       <c r="AX78" s="131"/>
       <c r="AY78" s="305"/>
       <c r="AZ78" s="130" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="BA78" s="131"/>
       <c r="BB78" s="131"/>
@@ -12199,14 +12019,14 @@
     </row>
     <row r="79" spans="1:256" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="299" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B79" s="300"/>
       <c r="C79" s="300"/>
       <c r="D79" s="300"/>
       <c r="E79" s="301"/>
       <c r="F79" s="133" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G79" s="134"/>
       <c r="H79" s="134"/>
@@ -12258,7 +12078,7 @@
       <c r="BB79" s="137"/>
       <c r="BC79" s="138"/>
       <c r="BD79" s="136" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BE79" s="137"/>
       <c r="BF79" s="137"/>
@@ -12267,7 +12087,7 @@
       <c r="BI79" s="137"/>
       <c r="BJ79" s="138"/>
       <c r="BK79" s="136" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="BL79" s="137"/>
       <c r="BM79" s="137"/>
@@ -12309,7 +12129,7 @@
       <c r="CW79" s="137"/>
       <c r="CX79" s="138"/>
       <c r="CY79" s="136" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="CZ79" s="137"/>
       <c r="DA79" s="137"/>
@@ -12321,15 +12141,13 @@
     </row>
     <row r="80" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="293" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B80" s="294"/>
       <c r="C80" s="294"/>
       <c r="D80" s="294"/>
       <c r="E80" s="295"/>
-      <c r="F80" s="23" t="s">
-        <v>90</v>
-      </c>
+      <c r="F80" s="23"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
@@ -12341,24 +12159,18 @@
       <c r="O80" s="127"/>
       <c r="P80" s="127"/>
       <c r="Q80" s="127"/>
-      <c r="R80" s="128" t="s">
-        <v>9</v>
-      </c>
+      <c r="R80" s="128"/>
       <c r="S80" s="128"/>
       <c r="T80" s="128"/>
       <c r="U80" s="128"/>
       <c r="V80" s="128"/>
-      <c r="W80" s="128" t="s">
-        <v>15</v>
-      </c>
+      <c r="W80" s="128"/>
       <c r="X80" s="128"/>
       <c r="Y80" s="128"/>
       <c r="Z80" s="128"/>
       <c r="AA80" s="128"/>
       <c r="AB80" s="128"/>
-      <c r="AC80" s="128" t="s">
-        <v>45</v>
-      </c>
+      <c r="AC80" s="128"/>
       <c r="AD80" s="128"/>
       <c r="AE80" s="128"/>
       <c r="AF80" s="128"/>
@@ -12381,9 +12193,7 @@
       <c r="AW80" s="128"/>
       <c r="AX80" s="128"/>
       <c r="AY80" s="128"/>
-      <c r="AZ80" s="97" t="s">
-        <v>100</v>
-      </c>
+      <c r="AZ80" s="97"/>
       <c r="BA80" s="97"/>
       <c r="BB80" s="97"/>
       <c r="BC80" s="97"/>
@@ -12447,7 +12257,7 @@
     </row>
     <row r="81" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="293" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B81" s="294"/>
       <c r="C81" s="294"/>
@@ -12455,9 +12265,7 @@
       <c r="E81" s="295"/>
       <c r="F81" s="126"/>
       <c r="G81" s="93"/>
-      <c r="H81" s="97" t="s">
-        <v>122</v>
-      </c>
+      <c r="H81" s="97"/>
       <c r="I81" s="97"/>
       <c r="J81" s="97"/>
       <c r="K81" s="97"/>
@@ -12501,9 +12309,7 @@
       <c r="AW81" s="97"/>
       <c r="AX81" s="97"/>
       <c r="AY81" s="97"/>
-      <c r="AZ81" s="96" t="s">
-        <v>46</v>
-      </c>
+      <c r="AZ81" s="96"/>
       <c r="BA81" s="96"/>
       <c r="BB81" s="96"/>
       <c r="BC81" s="96"/>
@@ -12514,9 +12320,7 @@
       <c r="BH81" s="96"/>
       <c r="BI81" s="96"/>
       <c r="BJ81" s="96"/>
-      <c r="BK81" s="96" t="s">
-        <v>49</v>
-      </c>
+      <c r="BK81" s="96"/>
       <c r="BL81" s="96"/>
       <c r="BM81" s="96"/>
       <c r="BN81" s="96"/>
@@ -12569,7 +12373,7 @@
     </row>
     <row r="82" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="293" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B82" s="294"/>
       <c r="C82" s="294"/>
@@ -12577,9 +12381,7 @@
       <c r="E82" s="295"/>
       <c r="F82" s="95"/>
       <c r="G82" s="96"/>
-      <c r="H82" s="97" t="s">
-        <v>50</v>
-      </c>
+      <c r="H82" s="97"/>
       <c r="I82" s="97"/>
       <c r="J82" s="97"/>
       <c r="K82" s="97"/>
@@ -12687,7 +12489,7 @@
     </row>
     <row r="83" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="293" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B83" s="294"/>
       <c r="C83" s="294"/>
@@ -12803,7 +12605,7 @@
     </row>
     <row r="84" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="293" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B84" s="294"/>
       <c r="C84" s="294"/>
@@ -12919,7 +12721,7 @@
     </row>
     <row r="85" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="293" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B85" s="294"/>
       <c r="C85" s="294"/>
@@ -13035,7 +12837,7 @@
     </row>
     <row r="86" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="293" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B86" s="294"/>
       <c r="C86" s="294"/>
@@ -13151,7 +12953,7 @@
     </row>
     <row r="87" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="293" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B87" s="294"/>
       <c r="C87" s="294"/>
@@ -13267,7 +13069,7 @@
     </row>
     <row r="88" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="293" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B88" s="294"/>
       <c r="C88" s="294"/>
@@ -13383,7 +13185,7 @@
     </row>
     <row r="89" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="293" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B89" s="294"/>
       <c r="C89" s="294"/>
@@ -13499,7 +13301,7 @@
     </row>
     <row r="90" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="293" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B90" s="294"/>
       <c r="C90" s="294"/>
@@ -13615,7 +13417,7 @@
     </row>
     <row r="91" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="293" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B91" s="294"/>
       <c r="C91" s="294"/>
@@ -13731,7 +13533,7 @@
     </row>
     <row r="92" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="293" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B92" s="294"/>
       <c r="C92" s="294"/>
@@ -13847,7 +13649,7 @@
     </row>
     <row r="93" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="293" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B93" s="294"/>
       <c r="C93" s="294"/>
@@ -13963,7 +13765,7 @@
     </row>
     <row r="94" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="293" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B94" s="294"/>
       <c r="C94" s="294"/>
@@ -14079,7 +13881,7 @@
     </row>
     <row r="95" spans="1:256" s="14" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="296" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B95" s="297"/>
       <c r="C95" s="297"/>
@@ -14195,7 +13997,7 @@
     </row>
     <row r="96" spans="1:256" s="17" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="227" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B96" s="228"/>
       <c r="C96" s="228"/>
@@ -14206,7 +14008,7 @@
       <c r="H96" s="228"/>
       <c r="I96" s="229"/>
       <c r="J96" s="170" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K96" s="171"/>
       <c r="L96" s="171"/>
@@ -14759,7 +14561,7 @@
       <c r="CA99" s="58"/>
       <c r="CB99" s="59"/>
       <c r="CC99" s="60" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="CD99" s="60"/>
       <c r="CE99" s="60"/>
@@ -14909,7 +14711,7 @@
     </row>
     <row r="101" spans="1:112" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="90" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B101" s="91"/>
       <c r="C101" s="91"/>
@@ -15025,7 +14827,7 @@
     </row>
     <row r="102" spans="1:112" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B102" s="91"/>
       <c r="C102" s="91"/>
@@ -15141,7 +14943,7 @@
     </row>
     <row r="103" spans="1:112" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="307" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B103" s="308"/>
       <c r="C103" s="308"/>
@@ -15191,19 +14993,19 @@
       <c r="AU103" s="64"/>
       <c r="AV103" s="64"/>
       <c r="AW103" s="103" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AX103" s="104"/>
       <c r="AY103" s="104"/>
       <c r="AZ103" s="105"/>
       <c r="BA103" s="103" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BB103" s="104"/>
       <c r="BC103" s="104"/>
       <c r="BD103" s="105"/>
       <c r="BE103" s="103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BF103" s="104"/>
       <c r="BG103" s="104"/>
@@ -15214,7 +15016,7 @@
       <c r="BL103" s="104"/>
       <c r="BM103" s="105"/>
       <c r="BN103" s="103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BO103" s="104"/>
       <c r="BP103" s="104"/>
@@ -15224,7 +15026,7 @@
       <c r="BT103" s="104"/>
       <c r="BU103" s="105"/>
       <c r="BV103" s="103" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BW103" s="104"/>
       <c r="BX103" s="104"/>
@@ -15232,19 +15034,19 @@
       <c r="BZ103" s="104"/>
       <c r="CA103" s="105"/>
       <c r="CB103" s="103" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="CC103" s="104"/>
       <c r="CD103" s="104"/>
       <c r="CE103" s="105"/>
       <c r="CF103" s="103" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="CG103" s="104"/>
       <c r="CH103" s="104"/>
       <c r="CI103" s="105"/>
       <c r="CJ103" s="103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="CK103" s="104"/>
       <c r="CL103" s="104"/>
@@ -15255,7 +15057,7 @@
       <c r="CQ103" s="104"/>
       <c r="CR103" s="105"/>
       <c r="CS103" s="103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="CT103" s="104"/>
       <c r="CU103" s="104"/>
@@ -15265,7 +15067,7 @@
       <c r="CY103" s="104"/>
       <c r="CZ103" s="105"/>
       <c r="DA103" s="103" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="DB103" s="104"/>
       <c r="DC103" s="104"/>
@@ -15381,7 +15183,7 @@
       <c r="CY104" s="107"/>
       <c r="CZ104" s="108"/>
       <c r="DA104" s="112" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="DB104" s="113"/>
       <c r="DC104" s="113"/>
@@ -15576,9 +15378,7 @@
       <c r="BP106" s="88"/>
       <c r="BQ106" s="88"/>
       <c r="BR106" s="118"/>
-      <c r="BS106" s="177" t="s">
-        <v>118</v>
-      </c>
+      <c r="BS106" s="177"/>
       <c r="BT106" s="178"/>
       <c r="BU106" s="178"/>
       <c r="BV106" s="178"/>
@@ -15600,9 +15400,7 @@
       <c r="CL106" s="178"/>
       <c r="CM106" s="178"/>
       <c r="CN106" s="179"/>
-      <c r="CO106" s="140" t="s">
-        <v>124</v>
-      </c>
+      <c r="CO106" s="140"/>
       <c r="CP106" s="141"/>
       <c r="CQ106" s="141"/>
       <c r="CR106" s="141"/>
@@ -15860,32 +15658,32 @@
       <c r="D109" s="300"/>
       <c r="E109" s="301"/>
       <c r="F109" s="302" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G109" s="303"/>
       <c r="H109" s="303"/>
       <c r="I109" s="304"/>
       <c r="J109" s="302" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K109" s="303"/>
       <c r="L109" s="303"/>
       <c r="M109" s="304"/>
       <c r="N109" s="302" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O109" s="303"/>
       <c r="P109" s="303"/>
       <c r="Q109" s="304"/>
       <c r="R109" s="186" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="S109" s="187"/>
       <c r="T109" s="187"/>
       <c r="U109" s="187"/>
       <c r="V109" s="188"/>
       <c r="W109" s="130" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="X109" s="131"/>
       <c r="Y109" s="131"/>
@@ -15916,7 +15714,7 @@
       <c r="AX109" s="131"/>
       <c r="AY109" s="305"/>
       <c r="AZ109" s="130" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="BA109" s="131"/>
       <c r="BB109" s="131"/>
@@ -15979,14 +15777,14 @@
     </row>
     <row r="110" spans="1:112" s="12" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="299" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B110" s="300"/>
       <c r="C110" s="300"/>
       <c r="D110" s="300"/>
       <c r="E110" s="301"/>
       <c r="F110" s="133" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G110" s="134"/>
       <c r="H110" s="134"/>
@@ -16038,7 +15836,7 @@
       <c r="BB110" s="137"/>
       <c r="BC110" s="138"/>
       <c r="BD110" s="136" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BE110" s="137"/>
       <c r="BF110" s="137"/>
@@ -16047,7 +15845,7 @@
       <c r="BI110" s="137"/>
       <c r="BJ110" s="138"/>
       <c r="BK110" s="136" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="BL110" s="137"/>
       <c r="BM110" s="137"/>
@@ -16089,7 +15887,7 @@
       <c r="CW110" s="137"/>
       <c r="CX110" s="138"/>
       <c r="CY110" s="136" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="CZ110" s="137"/>
       <c r="DA110" s="137"/>
@@ -16101,7 +15899,7 @@
     </row>
     <row r="111" spans="1:112" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="293" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B111" s="294"/>
       <c r="C111" s="294"/>
@@ -16217,7 +16015,7 @@
     </row>
     <row r="112" spans="1:112" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="293" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B112" s="294"/>
       <c r="C112" s="294"/>
@@ -16333,7 +16131,7 @@
     </row>
     <row r="113" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="293" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B113" s="294"/>
       <c r="C113" s="294"/>
@@ -16449,7 +16247,7 @@
     </row>
     <row r="114" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="293" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B114" s="294"/>
       <c r="C114" s="294"/>
@@ -16565,7 +16363,7 @@
     </row>
     <row r="115" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="293" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B115" s="294"/>
       <c r="C115" s="294"/>
@@ -16681,7 +16479,7 @@
     </row>
     <row r="116" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="293" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B116" s="294"/>
       <c r="C116" s="294"/>
@@ -16797,7 +16595,7 @@
     </row>
     <row r="117" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="293" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B117" s="294"/>
       <c r="C117" s="294"/>
@@ -16913,7 +16711,7 @@
     </row>
     <row r="118" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="293" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B118" s="294"/>
       <c r="C118" s="294"/>
@@ -17029,7 +16827,7 @@
     </row>
     <row r="119" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="293" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B119" s="294"/>
       <c r="C119" s="294"/>
@@ -17145,7 +16943,7 @@
     </row>
     <row r="120" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="293" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B120" s="294"/>
       <c r="C120" s="294"/>
@@ -17261,7 +17059,7 @@
     </row>
     <row r="121" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="293" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B121" s="294"/>
       <c r="C121" s="294"/>
@@ -17377,7 +17175,7 @@
     </row>
     <row r="122" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="293" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B122" s="294"/>
       <c r="C122" s="294"/>
@@ -17493,7 +17291,7 @@
     </row>
     <row r="123" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="293" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B123" s="294"/>
       <c r="C123" s="294"/>
@@ -17725,7 +17523,7 @@
     </row>
     <row r="125" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="293" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B125" s="294"/>
       <c r="C125" s="294"/>
@@ -17841,7 +17639,7 @@
     </row>
     <row r="126" spans="1:256" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="296" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B126" s="297"/>
       <c r="C126" s="297"/>
@@ -17957,7 +17755,7 @@
     </row>
     <row r="127" spans="1:256" s="17" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="227" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B127" s="228"/>
       <c r="C127" s="228"/>
@@ -17968,7 +17766,7 @@
       <c r="H127" s="228"/>
       <c r="I127" s="229"/>
       <c r="J127" s="170" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K127" s="171"/>
       <c r="L127" s="171"/>

--- a/TechnicalProcessControl/TechnicalProcessControl/Templates/template001.xlsx
+++ b/TechnicalProcessControl/TechnicalProcessControl/Templates/template001.xlsx
@@ -2939,7 +2939,7 @@
   </sheetPr>
   <dimension ref="A1:IV128"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="CO75" sqref="CO75:DF77"/>
     </sheetView>
   </sheetViews>
